--- a/通信协议/通信协议.xlsx
+++ b/通信协议/通信协议.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="14688" windowHeight="13595" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="通信协议格式" sheetId="1" r:id="rId1"/>
+    <sheet name="功能码" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,9 +16,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>通信协议</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+  <si>
+    <t>4WD通信协议</t>
+  </si>
+  <si>
+    <t>指令格式：</t>
+  </si>
+  <si>
+    <t>响应</t>
+  </si>
+  <si>
+    <t>协议：</t>
+  </si>
+  <si>
+    <t>字节数：</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>帧头</t>
+  </si>
+  <si>
+    <t>定值</t>
+  </si>
+  <si>
+    <t>源地址</t>
+  </si>
+  <si>
+    <t>发送端地址</t>
+  </si>
+  <si>
+    <t>目的地址</t>
+  </si>
+  <si>
+    <t>接收端地址</t>
+  </si>
+  <si>
+    <t>数据长度</t>
+  </si>
+  <si>
+    <t>功能码和参数的长度</t>
+  </si>
+  <si>
+    <t>功能码</t>
+  </si>
+  <si>
+    <t>区分帧功能</t>
+  </si>
+  <si>
+    <t>状态信息</t>
+  </si>
+  <si>
+    <t>指令执行状态</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数信息</t>
+  </si>
+  <si>
+    <t>校验码</t>
+  </si>
+  <si>
+    <t>和校验</t>
+  </si>
+  <si>
+    <t>。。。</t>
+  </si>
+  <si>
+    <t>帧尾</t>
+  </si>
+  <si>
+    <t>参数n</t>
+  </si>
+  <si>
+    <t>和校验位</t>
+  </si>
+  <si>
+    <t>从原地址到参数的校验和</t>
+  </si>
+  <si>
+    <t>1. 帧头：</t>
+  </si>
+  <si>
+    <t>为定值：0xA5 0x5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 源地址： </t>
+  </si>
+  <si>
+    <t>3. 目的地址：</t>
+  </si>
+  <si>
+    <t>接受端地址</t>
+  </si>
+  <si>
+    <t>4. 数据长度：</t>
+  </si>
+  <si>
+    <t>从功能码到参数的长度，低位在前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 功能码： </t>
+  </si>
+  <si>
+    <t>区分指令类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 功能码： </t>
+  </si>
+  <si>
+    <t>5. 状态信息</t>
+  </si>
+  <si>
+    <t>6. 参数：</t>
+  </si>
+  <si>
+    <t>指令附加参数，可以为空</t>
+  </si>
+  <si>
+    <t>7. 校验和：</t>
+  </si>
+  <si>
+    <t>从源地址到参数结束的校验和</t>
+  </si>
+  <si>
+    <t>8. 帧尾：</t>
+  </si>
+  <si>
+    <t>为定值：0xFE</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>前进</t>
+  </si>
+  <si>
+    <t>后退</t>
+  </si>
+  <si>
+    <t>左转弯</t>
+  </si>
+  <si>
+    <t>右转弯</t>
+  </si>
+  <si>
+    <t>小车状态上报</t>
+  </si>
+  <si>
+    <t>小车传感器信息</t>
   </si>
 </sst>
 </file>
@@ -26,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -37,6 +187,73 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -49,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,14 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,14 +303,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -108,15 +310,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,60 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -193,61 +343,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,19 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,103 +527,61 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,8 +603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -418,21 +616,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,24 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -492,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -504,7 +669,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -513,22 +678,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,106 +705,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -986,20 +1172,380 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="13.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="C9:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1009,14 +1555,108 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1032,7 +1672,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/通信协议/通信协议.xlsx
+++ b/通信协议/通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14688" windowHeight="13595" activeTab="1"/>
+    <workbookView windowWidth="10224" windowHeight="13595"/>
   </bookViews>
   <sheets>
     <sheet name="通信协议格式" sheetId="1" r:id="rId1"/>
@@ -206,6 +206,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,6 +244,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -251,7 +274,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,51 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -325,14 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,11 +552,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,52 +626,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1292,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1557,8 +1557,8 @@
   <sheetPr/>
   <dimension ref="A3:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
